--- a/biology/Zoologie/Colias_cocandica/Colias_cocandica.xlsx
+++ b/biology/Zoologie/Colias_cocandica/Colias_cocandica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colias cocandica est une espèce de papillons de la famille des Pieridae, de la sous-famille des Coliadinae et du genre Colias.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Colias wiskotti a été décrite par Nikolay Grigorievich Ershov (d) en 1874[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Colias wiskotti a été décrite par Nikolay Grigorievich Ershov (d) en 1874.
 </t>
         </is>
       </c>
@@ -542,14 +556,16 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Colias cocandica cocandica au Tadjikistan.
 Colias cocandica hinducucica (Verity, 1911) en Afghanistan.
 Colias cocandica  kunjerabi (Verhulst, 1999) au Pakistan.
 Colias cocandica maja (Grum-Grshimailo, 1891)
 Colias cocandica nastoides (Verity, 1911)
-Colias cocandica pljushtchi (Verhulst, 2000) au Kazakhstan[1].</t>
+Colias cocandica pljushtchi (Verhulst, 2000) au Kazakhstan.</t>
         </is>
       </c>
     </row>
@@ -577,9 +593,11 @@
           <t>Nom vernaculaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colias cocandica se nomme Lemon Clouded Yellow en anglais[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias cocandica se nomme Lemon Clouded Yellow en anglais.
 </t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colias cocandica est un papillon d'une envergure de 35 mm à 45 mmLe mâle présente une couleur jaune verdâtre pâle avec une large bande foncée le long du bord externe marquée d'une bande de grands triangles clairs, la femelle est plus blanche[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias cocandica est un papillon d'une envergure de 35 mm à 45 mmLe mâle présente une couleur jaune verdâtre pâle avec une large bande foncée le long du bord externe marquée d'une bande de grands triangles clairs, la femelle est plus blanche.
 </t>
         </is>
       </c>
@@ -641,8 +661,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Echinospermum et des Oxytropis[1].
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Echinospermum et des Oxytropis.
 </t>
         </is>
       </c>
@@ -671,13 +696,85 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colias cocandica est présent au Tadjikistan, au Kazakhstan, en Afghanistan, au Pakistan et en Inde[1].
-Biotope
-Colias cocandica réside en montagne jusqu'à 5 000 m à 6 000 m[2].
-Protection
-Il est déclaré en danger (CR A1c, B1 2bc)[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias cocandica est présent au Tadjikistan, au Kazakhstan, en Afghanistan, au Pakistan et en Inde.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Colias_cocandica</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_cocandica</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias cocandica réside en montagne jusqu'à 5 000 m à 6 000 m.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Colias_cocandica</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_cocandica</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est déclaré en danger (CR A1c, B1 2bc).
 </t>
         </is>
       </c>
